--- a/TestData/Testdata.xlsx
+++ b/TestData/Testdata.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\PC\git\SeleniumFramework_Draft\TestData\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\PC\git\SeleniumFramework_Draft_2\TestData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7B8C4E0B-EEC7-4323-BCA1-49DB963EC672}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2331822A-56EA-4D8B-9D3D-6A0218CC0788}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="17">
   <si>
     <t>Execute</t>
   </si>
@@ -64,6 +64,18 @@
   </si>
   <si>
     <t>Password</t>
+  </si>
+  <si>
+    <t>123444</t>
+  </si>
+  <si>
+    <t>TestCase002_start</t>
+  </si>
+  <si>
+    <t>TestCase003_start</t>
+  </si>
+  <si>
+    <t>TestCase004_start</t>
   </si>
 </sst>
 </file>
@@ -123,11 +135,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -409,10 +422,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G2"/>
+  <dimension ref="A1:G5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F8" sqref="F8"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -468,11 +481,85 @@
       <c r="F2" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="G2" s="1"/>
+      <c r="G2" s="4" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="G3" s="4" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="G4" s="4" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A5" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F5" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="G5" s="4" t="s">
+        <v>13</v>
+      </c>
     </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="F2" r:id="rId1" xr:uid="{EE043347-D152-4CA9-9C02-00BD92E5C349}"/>
+    <hyperlink ref="F3" r:id="rId2" xr:uid="{2A94CF5D-7F99-480A-8F7E-E1D67BB56970}"/>
+    <hyperlink ref="F4" r:id="rId3" xr:uid="{CF37E5D7-39F7-46DB-A134-0807F767EEC9}"/>
+    <hyperlink ref="F5" r:id="rId4" xr:uid="{E013F88A-E79B-4A17-A110-C4F61DFB19CD}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/TestData/Testdata.xlsx
+++ b/TestData/Testdata.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\PC\git\SeleniumFramework_Draft_2\TestData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2331822A-56EA-4D8B-9D3D-6A0218CC0788}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4BD1919E-0FE3-404B-8299-66D8CFFB529A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,6 +16,7 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="162913"/>
+  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -25,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
   <si>
     <t>Execute</t>
   </si>
@@ -36,9 +37,6 @@
     <t>TestCaseDescription</t>
   </si>
   <si>
-    <t>TestCase001_start</t>
-  </si>
-  <si>
     <t>startng the testcase</t>
   </si>
   <si>
@@ -60,22 +58,16 @@
     <t>Murugesan</t>
   </si>
   <si>
-    <t>muralimohan.m@optisolbusiness.com</t>
-  </si>
-  <si>
     <t>Password</t>
   </si>
   <si>
     <t>123444</t>
   </si>
   <si>
-    <t>TestCase002_start</t>
-  </si>
-  <si>
-    <t>TestCase003_start</t>
-  </si>
-  <si>
-    <t>TestCase004_start</t>
+    <t>TC_Chopras_CreateStudentProfile</t>
+  </si>
+  <si>
+    <t>muralimohan.mddd@optisolbusiness.com</t>
   </si>
 </sst>
 </file>
@@ -99,12 +91,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="2">
@@ -135,12 +133,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -422,15 +421,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G5"/>
+  <dimension ref="A1:G2"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="17" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="31.85546875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="19.28515625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="8" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="10.140625" bestFit="1" customWidth="1"/>
@@ -450,116 +449,44 @@
         <v>0</v>
       </c>
       <c r="D1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="F1" s="1" t="s">
-        <v>8</v>
-      </c>
       <c r="G1" s="3" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A2" s="1" t="s">
+      <c r="A2" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="B2" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="C2" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="C2" s="1" t="s">
-        <v>5</v>
-      </c>
       <c r="D2" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E2" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="E2" s="1" t="s">
-        <v>10</v>
-      </c>
       <c r="F2" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="G2" s="4" t="s">
         <v>11</v>
-      </c>
-      <c r="G2" s="4" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A3" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="F3" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="G3" s="4" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A4" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="E4" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="F4" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="G4" s="4" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A5" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="E5" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="F5" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="G5" s="4" t="s">
-        <v>13</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="F2" r:id="rId1" xr:uid="{EE043347-D152-4CA9-9C02-00BD92E5C349}"/>
-    <hyperlink ref="F3" r:id="rId2" xr:uid="{2A94CF5D-7F99-480A-8F7E-E1D67BB56970}"/>
-    <hyperlink ref="F4" r:id="rId3" xr:uid="{CF37E5D7-39F7-46DB-A134-0807F767EEC9}"/>
-    <hyperlink ref="F5" r:id="rId4" xr:uid="{E013F88A-E79B-4A17-A110-C4F61DFB19CD}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/TestData/Testdata.xlsx
+++ b/TestData/Testdata.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\PC\git\SeleniumFramework_Draft_2\TestData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4BD1919E-0FE3-404B-8299-66D8CFFB529A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7133E62C-9E8D-46E3-8F7A-6A7EEAFFD519}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -91,7 +91,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -101,6 +101,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2" tint="-9.9978637043366805E-2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -137,9 +143,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -424,7 +430,7 @@
   <dimension ref="A1:G2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F2" sqref="F2"/>
+      <selection activeCell="H4" sqref="H4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -439,36 +445,36 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="G1" s="3" t="s">
+      <c r="G1" s="5" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A2" s="5" t="s">
+      <c r="A2" s="4" t="s">
         <v>12</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="C2" s="5" t="s">
+      <c r="C2" s="4" t="s">
         <v>4</v>
       </c>
       <c r="D2" s="1" t="s">
@@ -480,7 +486,7 @@
       <c r="F2" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="G2" s="4" t="s">
+      <c r="G2" s="3" t="s">
         <v>11</v>
       </c>
     </row>

--- a/TestData/Testdata.xlsx
+++ b/TestData/Testdata.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\PC\git\SeleniumFramework_Draft_2\TestData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7133E62C-9E8D-46E3-8F7A-6A7EEAFFD519}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3B73E77E-AC49-4022-825F-A67DA082B2A4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="21">
   <si>
     <t>Execute</t>
   </si>
@@ -64,17 +64,38 @@
     <t>123444</t>
   </si>
   <si>
-    <t>TC_Chopras_CreateStudentProfile</t>
-  </si>
-  <si>
     <t>muralimohan.mddd@optisolbusiness.com</t>
+  </si>
+  <si>
+    <t>TC_Chopras_CreateStudentProfile1</t>
+  </si>
+  <si>
+    <t>TC_Chopras_CreateStudentProfile2</t>
+  </si>
+  <si>
+    <t>TC_Chopras_CreateStudentProfile3</t>
+  </si>
+  <si>
+    <t>TC_Chopras_CreateStudentProfile4</t>
+  </si>
+  <si>
+    <t>TC_Chopras_CreateStudentProfile5</t>
+  </si>
+  <si>
+    <t>123888</t>
+  </si>
+  <si>
+    <t>TestMethodName</t>
+  </si>
+  <si>
+    <t>NA</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -86,6 +107,12 @@
       <u/>
       <sz val="11"/>
       <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -427,72 +454,188 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G2"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H4" sqref="H4"/>
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="31.85546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="19.28515625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="8" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.7109375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="36" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="9.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="31.85546875" customWidth="1"/>
+    <col min="3" max="3" width="19.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="8" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.7109375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="36" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="9.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" s="5" t="s">
         <v>1</v>
       </c>
       <c r="B1" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="C1" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="5" t="s">
+      <c r="D1" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="D1" s="5" t="s">
+      <c r="E1" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="E1" s="5" t="s">
+      <c r="F1" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="F1" s="5" t="s">
+      <c r="G1" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="G1" s="5" t="s">
+      <c r="H1" s="5" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G2" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="H2" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A3" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="C3" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="C2" s="4" t="s">
+      <c r="D3" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="E3" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="E2" s="1" t="s">
+      <c r="F3" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="F2" s="2" t="s">
+      <c r="G3" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="H3" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A4" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="B4" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="G2" s="3" t="s">
+      <c r="C4" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D4" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G4" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="H4" s="3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A5" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D5" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G5" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="H5" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A6" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D6" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G6" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="H6" s="3" t="s">
         <v>11</v>
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="F2" r:id="rId1" xr:uid="{EE043347-D152-4CA9-9C02-00BD92E5C349}"/>
+    <hyperlink ref="G2" r:id="rId1" xr:uid="{EE043347-D152-4CA9-9C02-00BD92E5C349}"/>
+    <hyperlink ref="G3" r:id="rId2" xr:uid="{F24E51D7-028E-43E8-956F-9CCA91526C72}"/>
+    <hyperlink ref="G4" r:id="rId3" xr:uid="{7102D402-AC5C-45FB-AF14-AEF9ADC10753}"/>
+    <hyperlink ref="G5" r:id="rId4" xr:uid="{C596BBC2-13CD-4A91-B13E-F90EC05FC210}"/>
+    <hyperlink ref="G6" r:id="rId5" xr:uid="{E763FE4C-A52B-445B-AF2F-DF9CA2EF65B5}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/TestData/Testdata.xlsx
+++ b/TestData/Testdata.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22624"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\PC\git\SeleniumFramework_Draft_2\TestData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3B73E77E-AC49-4022-825F-A67DA082B2A4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{21837AC5-B274-49B6-BDD9-A8783C11B276}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,7 +16,6 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="162913"/>
-  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -26,10 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="21">
-  <si>
-    <t>Execute</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
   <si>
     <t>TestCaseName</t>
   </si>
@@ -40,9 +36,6 @@
     <t>startng the testcase</t>
   </si>
   <si>
-    <t>Y</t>
-  </si>
-  <si>
     <t>FirstName</t>
   </si>
   <si>
@@ -61,34 +54,13 @@
     <t>Password</t>
   </si>
   <si>
-    <t>123444</t>
-  </si>
-  <si>
-    <t>muralimohan.mddd@optisolbusiness.com</t>
-  </si>
-  <si>
     <t>TC_Chopras_CreateStudentProfile1</t>
   </si>
   <si>
-    <t>TC_Chopras_CreateStudentProfile2</t>
-  </si>
-  <si>
-    <t>TC_Chopras_CreateStudentProfile3</t>
-  </si>
-  <si>
-    <t>TC_Chopras_CreateStudentProfile4</t>
-  </si>
-  <si>
-    <t>TC_Chopras_CreateStudentProfile5</t>
-  </si>
-  <si>
-    <t>123888</t>
-  </si>
-  <si>
-    <t>TestMethodName</t>
-  </si>
-  <si>
-    <t>NA</t>
+    <t>m.muralimohan@live.in</t>
+  </si>
+  <si>
+    <t>pass1234</t>
   </si>
 </sst>
 </file>
@@ -454,188 +426,66 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H6"/>
+  <dimension ref="A1:F2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+      <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="31.85546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="31.85546875" customWidth="1"/>
-    <col min="3" max="3" width="19.28515625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="8" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="10.140625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9.7109375" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="36" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="9.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="19.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.85546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="36" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="5" t="s">
-        <v>19</v>
-      </c>
       <c r="C1" s="5" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D1" s="5" t="s">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="E1" s="5" t="s">
         <v>5</v>
       </c>
       <c r="F1" s="5" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C2" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="G1" s="5" t="s">
+      <c r="D2" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="H1" s="5" t="s">
+      <c r="E2" s="2" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A2" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="B2" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="D2" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="F2" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="G2" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="H2" s="3" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A3" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="B3" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="D3" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="F3" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="G3" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="H3" s="3" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A4" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="B4" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="D4" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="E4" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="F4" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="G4" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="H4" s="3" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A5" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="B5" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="D5" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="E5" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="F5" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="G5" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="H5" s="3" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A6" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="B6" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="D6" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="E6" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="F6" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="G6" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="H6" s="3" t="s">
+      <c r="F2" s="3" t="s">
         <v>11</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="G2" r:id="rId1" xr:uid="{EE043347-D152-4CA9-9C02-00BD92E5C349}"/>
-    <hyperlink ref="G3" r:id="rId2" xr:uid="{F24E51D7-028E-43E8-956F-9CCA91526C72}"/>
-    <hyperlink ref="G4" r:id="rId3" xr:uid="{7102D402-AC5C-45FB-AF14-AEF9ADC10753}"/>
-    <hyperlink ref="G5" r:id="rId4" xr:uid="{C596BBC2-13CD-4A91-B13E-F90EC05FC210}"/>
-    <hyperlink ref="G6" r:id="rId5" xr:uid="{E763FE4C-A52B-445B-AF2F-DF9CA2EF65B5}"/>
+    <hyperlink ref="E2" r:id="rId1" xr:uid="{EE043347-D152-4CA9-9C02-00BD92E5C349}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/TestData/Testdata.xlsx
+++ b/TestData/Testdata.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\PC\git\SeleniumFramework_Draft_2\TestData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{21837AC5-B274-49B6-BDD9-A8783C11B276}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2F516670-767B-4655-946D-2DE749B72EDE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="27">
   <si>
     <t>TestCaseName</t>
   </si>
@@ -45,9 +45,6 @@
     <t>Email</t>
   </si>
   <si>
-    <t xml:space="preserve">Muralimohan </t>
-  </si>
-  <si>
     <t>Murugesan</t>
   </si>
   <si>
@@ -61,6 +58,54 @@
   </si>
   <si>
     <t>pass1234</t>
+  </si>
+  <si>
+    <t>Execute</t>
+  </si>
+  <si>
+    <t>Y</t>
+  </si>
+  <si>
+    <t>TC_Chopras_CreateStudentProfile2</t>
+  </si>
+  <si>
+    <t>startng the testcase_first repeat</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Muralimohan1 </t>
+  </si>
+  <si>
+    <t>Murugesan1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Muralimohan5 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Muralimohan4 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Muralimohan3 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Muralimohan2 </t>
+  </si>
+  <si>
+    <t>ClassName</t>
+  </si>
+  <si>
+    <t>CreateStudentProfile1</t>
+  </si>
+  <si>
+    <t>CreateStudentProfile2</t>
+  </si>
+  <si>
+    <t>CreateStudentProfile3</t>
+  </si>
+  <si>
+    <t>CreateStudentProfile4</t>
+  </si>
+  <si>
+    <t>CreateStudentProfile5</t>
   </si>
 </sst>
 </file>
@@ -426,66 +471,188 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F2" sqref="F2"/>
+      <selection activeCell="A10" sqref="A10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="31.85546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="19.28515625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="13.42578125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.85546875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="36" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="31.85546875" customWidth="1"/>
+    <col min="4" max="4" width="19.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.85546875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="36" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="9.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="B1" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C1" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="5" t="s">
+      <c r="D1" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="5" t="s">
+      <c r="E1" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="D1" s="5" t="s">
+      <c r="F1" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="E1" s="5" t="s">
+      <c r="G1" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="F1" s="5" t="s">
+      <c r="H1" s="5" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A2" s="4" t="s">
         <v>8</v>
       </c>
+      <c r="B2" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="H2" s="3" t="s">
+        <v>10</v>
+      </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A2" s="4" t="s">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="G3" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="E2" s="2" t="s">
+      <c r="H3" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="F2" s="3" t="s">
-        <v>11</v>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="G4" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="H4" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A5" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="G5" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="H5" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A6" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="G6" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="H6" s="3" t="s">
+        <v>10</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="E2" r:id="rId1" xr:uid="{EE043347-D152-4CA9-9C02-00BD92E5C349}"/>
+    <hyperlink ref="G2" r:id="rId1" xr:uid="{EE043347-D152-4CA9-9C02-00BD92E5C349}"/>
+    <hyperlink ref="G3" r:id="rId2" xr:uid="{A5033222-2506-4409-B130-A86BF8F0F76C}"/>
+    <hyperlink ref="G4" r:id="rId3" xr:uid="{ECFB4784-3CFE-4B21-8C3D-2646D930239D}"/>
+    <hyperlink ref="G5" r:id="rId4" xr:uid="{7EFFFBC6-4E84-46F3-A607-EA063A9E98E1}"/>
+    <hyperlink ref="G6" r:id="rId5" xr:uid="{6424B595-4A5E-49FD-A128-8291AEF84044}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
